--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedsaeed/Desktop/my projects/telegram-sender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518E1DAE-1692-1745-A2ED-33EE0157D031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D47725-E139-D340-A190-3B8D3CCA6CD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{BFA95ACF-28DA-9C42-8554-C84C4D10B76E}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fatma</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>201158808829</t>
   </si>
   <si>
-    <t>201119750851</t>
-  </si>
-  <si>
     <t>Fareed 1</t>
   </si>
   <si>
@@ -43,6 +37,24 @@
   </si>
   <si>
     <t>201555237993</t>
+  </si>
+  <si>
+    <t>Hesham</t>
+  </si>
+  <si>
+    <t>+201008002821</t>
+  </si>
+  <si>
+    <t>Wrong number</t>
+  </si>
+  <si>
+    <t>20112064137878</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>201120641378</t>
   </si>
 </sst>
 </file>
@@ -410,41 +422,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A1301-6B27-7641-A0BA-6E413A0FAA3F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="3" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
